--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.946587666666666</v>
+        <v>2.567946</v>
       </c>
       <c r="H2">
-        <v>8.839763</v>
+        <v>7.703838</v>
       </c>
       <c r="I2">
-        <v>0.9411413177545427</v>
+        <v>0.8361514603436194</v>
       </c>
       <c r="J2">
-        <v>0.9411413177545428</v>
+        <v>0.8361514603436195</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N2">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O2">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P2">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q2">
-        <v>12.84396741347155</v>
+        <v>1.194771971762</v>
       </c>
       <c r="R2">
-        <v>115.595706721244</v>
+        <v>10.752947745858</v>
       </c>
       <c r="S2">
-        <v>0.2969177893707525</v>
+        <v>0.02177565248461232</v>
       </c>
       <c r="T2">
-        <v>0.2969177893707525</v>
+        <v>0.02177565248461232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.946587666666666</v>
+        <v>2.567946</v>
       </c>
       <c r="H3">
-        <v>8.839763</v>
+        <v>7.703838</v>
       </c>
       <c r="I3">
-        <v>0.9411413177545427</v>
+        <v>0.8361514603436194</v>
       </c>
       <c r="J3">
-        <v>0.9411413177545428</v>
+        <v>0.8361514603436195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.344147</v>
       </c>
       <c r="O3">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P3">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q3">
-        <v>5.248999213017888</v>
+        <v>4.574493637353999</v>
       </c>
       <c r="R3">
-        <v>47.240992917161</v>
+        <v>41.170442736186</v>
       </c>
       <c r="S3">
-        <v>0.1213426655928305</v>
+        <v>0.083373719918443</v>
       </c>
       <c r="T3">
-        <v>0.1213426655928305</v>
+        <v>0.083373719918443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.946587666666666</v>
+        <v>2.567946</v>
       </c>
       <c r="H4">
-        <v>8.839763</v>
+        <v>7.703838</v>
       </c>
       <c r="I4">
-        <v>0.9411413177545427</v>
+        <v>0.8361514603436194</v>
       </c>
       <c r="J4">
-        <v>0.9411413177545428</v>
+        <v>0.8361514603436195</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N4">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O4">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P4">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q4">
-        <v>22.61860017565022</v>
+        <v>40.108134834906</v>
       </c>
       <c r="R4">
-        <v>203.567401580852</v>
+        <v>360.973213514154</v>
       </c>
       <c r="S4">
-        <v>0.5228808627909597</v>
+        <v>0.7310020879405642</v>
       </c>
       <c r="T4">
-        <v>0.5228808627909597</v>
+        <v>0.7310020879405642</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1842786666666667</v>
+        <v>0.5032033333333333</v>
       </c>
       <c r="H5">
-        <v>0.552836</v>
+        <v>1.50961</v>
       </c>
       <c r="I5">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="J5">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N5">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O5">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P5">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q5">
-        <v>0.803257685640889</v>
+        <v>0.2341222279455556</v>
       </c>
       <c r="R5">
-        <v>7.229319170768</v>
+        <v>2.10710005151</v>
       </c>
       <c r="S5">
-        <v>0.0185691452366505</v>
+        <v>0.0042670604894983</v>
       </c>
       <c r="T5">
-        <v>0.0185691452366505</v>
+        <v>0.0042670604894983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1842786666666667</v>
+        <v>0.5032033333333333</v>
       </c>
       <c r="H6">
-        <v>0.552836</v>
+        <v>1.50961</v>
       </c>
       <c r="I6">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="J6">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.344147</v>
       </c>
       <c r="O6">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P6">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q6">
-        <v>0.3282707612102223</v>
+        <v>0.8963975280744444</v>
       </c>
       <c r="R6">
-        <v>2.954436850892</v>
+        <v>8.067577752669999</v>
       </c>
       <c r="S6">
-        <v>0.007588732172534272</v>
+        <v>0.01633754517242973</v>
       </c>
       <c r="T6">
-        <v>0.00758873217253427</v>
+        <v>0.01633754517242973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1842786666666667</v>
+        <v>0.5032033333333333</v>
       </c>
       <c r="H7">
-        <v>0.552836</v>
+        <v>1.50961</v>
       </c>
       <c r="I7">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="J7">
-        <v>0.05885868224545731</v>
+        <v>0.1638485396563805</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N7">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O7">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P7">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q7">
-        <v>1.414560146771555</v>
+        <v>7.859412597736666</v>
       </c>
       <c r="R7">
-        <v>12.731041320944</v>
+        <v>70.73471337963001</v>
       </c>
       <c r="S7">
-        <v>0.03270080483627254</v>
+        <v>0.1432439339944525</v>
       </c>
       <c r="T7">
-        <v>0.03270080483627253</v>
+        <v>0.1432439339944525</v>
       </c>
     </row>
   </sheetData>
